--- a/data/income_statement/2digits/total/61_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/61_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>61-Telecommunications</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>61-Telecommunications</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>28437287.19769</v>
@@ -959,34 +865,39 @@
         <v>33958962.14716</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>36010637.67603</v>
+        <v>36014136.40566999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>39577360.06022</v>
+        <v>39609410.75661</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>41611420.45339</v>
+        <v>41667163.60421</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>41389265.21321001</v>
+        <v>46586184.97052</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>46497884.21896001</v>
+        <v>53925183.40767999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>63121143.65134</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>72691801.66371001</v>
+        <v>72703697.08029</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>84692711.74281999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>84770353.76901001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>103230106.687</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>26833963.93009</v>
@@ -995,37 +906,42 @@
         <v>29112502.63745</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>32338538.40056001</v>
+        <v>32338538.40056</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>34339079.24365</v>
+        <v>34342573.1783</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>37729053.67858</v>
+        <v>37761017.03924</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>39498423.62712</v>
+        <v>39554142.16379</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>39409490.33315</v>
+        <v>44298401.64061</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>44721002.55290999</v>
+        <v>51750092.39368001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>60700676.29716001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>69825786.21279001</v>
+        <v>69837352.3097</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>81143890.3944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>81218036.19915</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>99788527.65000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1453639.30296</v>
@@ -1046,25 +962,30 @@
         <v>1829125.61589</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1786586.37077</v>
+        <v>1868679.37155</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1299465.19727</v>
+        <v>1670551.19138</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1832929.41595</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2546536.95695</v>
+        <v>2546591.50628</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3289731.812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3291618.70588</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3087510.37</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>149683.96464</v>
@@ -1076,34 +997,39 @@
         <v>175557.31225</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>215124.21793</v>
+        <v>215129.01292</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>232081.81506</v>
+        <v>232169.15079</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>283871.21038</v>
+        <v>283895.82453</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>193188.50929</v>
+        <v>419103.9583599999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>477416.46878</v>
+        <v>504539.82262</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>587537.93823</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>319478.49397</v>
+        <v>319753.2643099999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>259089.53642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>260698.86398</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>354068.667</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>531502.7016199999</v>
@@ -1118,37 +1044,42 @@
         <v>1967910.55773</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2644579.035980001</v>
+        <v>2644580.14419</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>2392792.00097</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2861474.00299</v>
+        <v>2873717.68152</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4103746.80663</v>
+        <v>4126924.5385</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>6164260.56737</v>
+        <v>6164260.567369999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8876608.730619999</v>
+        <v>8876608.860620001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12081381.87915</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12081527.98379</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>18663490.874</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>132161.61179</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>317335.56334</v>
+        <v>317335.5633400001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>286241.9911</v>
@@ -1157,31 +1088,36 @@
         <v>346610.66187</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>342116.4145900001</v>
+        <v>342117.5228</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>320264.00533</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>370356.67581</v>
+        <v>380741.77472</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>448990.11078</v>
+        <v>471471.43019</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>496157.88358</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>493937.11016</v>
+        <v>493937.24016</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>778136.07505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>778262.94001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>734264.559</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>386342.21542</v>
@@ -1202,25 +1138,30 @@
         <v>2034005.17418</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2434210.44148</v>
+        <v>2436039.75042</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3603500.93201</v>
+        <v>3604197.34447</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5595001.58899</v>
+        <v>5595001.588990002</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8216127.100729999</v>
+        <v>8216127.10073</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11160372.93206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11160384.26406</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17793848.486</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12998.87441</v>
@@ -1232,16 +1173,16 @@
         <v>17039.32497</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>21729.64935000001</v>
+        <v>21729.64935</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>31054.4735</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>38522.82146</v>
+        <v>38522.82146000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>56906.8857</v>
+        <v>56936.15638</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>51255.76384</v>
@@ -1253,13 +1194,18 @@
         <v>166544.51973</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>142872.87204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>142880.77972</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>135377.829</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>27905784.49607</v>
@@ -1271,34 +1217,39 @@
         <v>31690904.97412</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>34042727.11830001</v>
+        <v>34046225.84794</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>36932781.02423999</v>
+        <v>36964830.61242</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>39218628.45242</v>
+        <v>39274371.60324001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>38527791.21022</v>
+        <v>43712467.289</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>42394137.41232999</v>
+        <v>49798258.86918</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>56956883.08397</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>63815192.93308999</v>
+        <v>63827088.21967</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>72611329.86366999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>72688825.78522</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>84566615.81299999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>15611999.73343</v>
@@ -1310,34 +1261,39 @@
         <v>19470515.71442</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>20866369.77852</v>
+        <v>20869078.42194</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>23386834.85701</v>
+        <v>23417986.19555</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>24935648.11645</v>
+        <v>24989769.65912</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>25183941.7802</v>
+        <v>29792296.71044</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>29081428.1675</v>
+        <v>34126129.03294</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>39494003.05258</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>44528406.32087</v>
+        <v>44538309.12414999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>49125693.15792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49186571.64394</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>57027048.396</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>164670.18956</v>
@@ -1352,16 +1308,16 @@
         <v>48294.11397</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>63605.66903000001</v>
+        <v>63605.66903</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>63611.84645</v>
+        <v>64396.84645</v>
       </c>
       <c r="I15" s="48" t="n">
         <v>46266.04173</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>68938.45696000001</v>
+        <v>78320.30459</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>84587.26882000001</v>
@@ -1370,13 +1326,18 @@
         <v>330145.25119</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>529408.4468300001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>529556.82677</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>503920.437</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1443241.69938</v>
@@ -1388,34 +1349,39 @@
         <v>1997378.477</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1894522.39373</v>
+        <v>1896848.18101</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2068045.52023</v>
+        <v>2071214.43125</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1895356.08428</v>
+        <v>1947353.4309</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2603000.233</v>
+        <v>2687633.30977</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3270210.49734</v>
+        <v>3314589.479320001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3399117.13468</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2918147.04047</v>
+        <v>2924167.35019</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2967386.38167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3009557.41137</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3675769.923</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>14001938.72078</v>
@@ -1427,34 +1393,39 @@
         <v>17436637.687</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>18920923.68651</v>
+        <v>18921306.54265</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>21251976.69607</v>
+        <v>21279959.12359</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>22972020.23173</v>
+        <v>22973359.42778</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>22530637.47079</v>
+        <v>27054236.99116</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>25736294.62886</v>
+        <v>30727231.01165</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>36003596.0697</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>41271339.33207</v>
+        <v>41275221.82563</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>45615005.62939</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>45633457.42201</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>52824609.061</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>2149.12371</v>
@@ -1469,16 +1440,16 @@
         <v>2629.58431</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>3206.971679999999</v>
+        <v>3206.97168</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>4659.95399</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4038.03468</v>
+        <v>4160.36778</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5984.584339999999</v>
+        <v>5988.23738</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>6702.57938</v>
@@ -1487,13 +1458,18 @@
         <v>8774.697139999998</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13892.70003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13999.98379</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>22748.975</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>12293784.76264</v>
@@ -1505,79 +1481,89 @@
         <v>12220389.2597</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>13176357.33978</v>
+        <v>13177147.426</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>13545946.16723</v>
+        <v>13546844.41687</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>14282980.33597</v>
+        <v>14284601.94412</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>13343849.43002</v>
+        <v>13920170.57856</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13312709.24483</v>
+        <v>15672129.83624</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>17462880.03139</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>19286786.61222</v>
+        <v>19288779.09552</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>23485636.70575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23502254.14128</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>27539567.417</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>8436330.898219999</v>
+        <v>8436330.898220001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>8689769.873080002</v>
+        <v>8689769.87308</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>9344403.202959999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>8763298.57364</v>
+        <v>8763882.826510001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>9201282.584319999</v>
+        <v>9202260.840790002</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9698291.072770001</v>
+        <v>9699507.536250001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>9134324.267029999</v>
+        <v>10523021.6851</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10521676.94155</v>
+        <v>12623179.77611</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>13869908.52636</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>15156439.84124</v>
+        <v>15158658.51225</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>17189457.87551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17204059.23211</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>18121888.531</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>18088.88575</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6933.821889999999</v>
+        <v>6933.82189</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>14688.22821</v>
@@ -1592,64 +1578,74 @@
         <v>39393.04613</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>43494.79631</v>
+        <v>43950.08639</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>34942.21872</v>
+        <v>63587.78251</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>94979.32739999999</v>
+        <v>94979.32740000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>64580.18333</v>
+        <v>64580.18332999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>96236.88462000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>96236.88462</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>135774.819</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>4561897.83284</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5155166.60415</v>
+        <v>5155166.604150001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>5493250.08417</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5559443.76483</v>
+        <v>5559581.565049999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5913463.733229999</v>
+        <v>5913556.469310001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6034117.88053</v>
+        <v>6034288.98557</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5183647.281020001</v>
+        <v>6288976.763509999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6399159.53465</v>
+        <v>7457251.213599999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>8730721.174899999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>9487260.441699998</v>
+        <v>9487325.443279998</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>10908443.92763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10916386.60655</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>11546678.103</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>3856344.17963</v>
@@ -1661,34 +1657,39 @@
         <v>3836464.89058</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3185861.8095</v>
+        <v>3186308.26215</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3257979.87539</v>
+        <v>3258865.39578</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3624780.14611</v>
+        <v>3625825.50455</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3907182.1897</v>
+        <v>4190094.8352</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4087575.188180001</v>
+        <v>5102340.78</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>5044208.024060002</v>
+        <v>5044208.02406</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5604599.216209999</v>
+        <v>5606752.885639999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6184777.06326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6191435.74094</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6439435.609</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>3857453.86442</v>
@@ -1700,34 +1701,39 @@
         <v>2875986.05674</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4413058.76614</v>
+        <v>4413264.59949</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4344663.582909999</v>
+        <v>4344583.576080001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4584689.2632</v>
+        <v>4585094.40787</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4209525.16299</v>
+        <v>3397148.89346</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2791032.30328</v>
+        <v>3048950.06013</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3592971.505030001</v>
+        <v>3592971.50503</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4130346.77098</v>
+        <v>4130120.583269999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6296178.83024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6298194.909170001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9417678.886</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>4246496.7136</v>
@@ -1736,37 +1742,42 @@
         <v>4364975.80265</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5886457.15555</v>
+        <v>5886457.155549999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6056197.35982</v>
+        <v>6056197.546899999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>10370652.80817</v>
+        <v>10374651.83553</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7657401.447600001</v>
+        <v>7657420.01645</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8763643.731970001</v>
+        <v>12863313.31683</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>15238360.56935</v>
+        <v>52130543.74739</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>31282379.01786</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>75577498.02339999</v>
+        <v>75578380.58026001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>36448497.50875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>36448822.42516</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>48516619.54</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>323451.26182</v>
@@ -1778,7 +1789,7 @@
         <v>191778.05097</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>509519.25445</v>
+        <v>509519.2544500001</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>183944.54423</v>
@@ -1790,7 +1801,7 @@
         <v>14247.59683</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>14951.95806</v>
+        <v>20436.87286</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>54399.62458</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>30753.42979</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13768.832</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1006297.46546</v>
@@ -1820,7 +1836,7 @@
         <v>1485473.65263</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>632886.98194</v>
+        <v>632886.9819400001</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>310096.81167</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>2854982.69782</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3450718.055</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>838147.1576399999</v>
+        <v>838147.1576400001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>911851.90126</v>
@@ -1859,31 +1880,36 @@
         <v>1148080.65578</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>949007.9460900001</v>
+        <v>949048.1204199999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>1243633.69722</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>916361.62524</v>
+        <v>992303.1054999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>679405.452</v>
+        <v>756880.24881</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1278593.06941</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1449688.10472</v>
+        <v>1449692.62801</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1410048.74255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1410293.12837</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1093104.497</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>85798.11392999999</v>
@@ -1901,13 +1927,13 @@
         <v>41751.26788</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>41383.93527000001</v>
+        <v>41383.93527</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>53110.23948000001</v>
+        <v>53135.86887000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>34009.31132999999</v>
+        <v>34041.51563999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>23081.83165</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>141765.32867</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>165298.996</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>346322.5231899999</v>
+        <v>346322.52319</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>390984.8781900001</v>
+        <v>390984.87819</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>629514.7558399999</v>
@@ -1937,16 +1968,16 @@
         <v>362475.97951</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>406448.73176</v>
+        <v>406448.7317600001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>456287.60015</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>491405.5161500001</v>
+        <v>564964.3245099999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>522651.79457</v>
+        <v>634263.2558500001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>928550.94624</v>
@@ -1955,22 +1986,27 @@
         <v>857489.5173099999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>784651.2788099999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>784651.27881</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>688732.958</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>139140.0443599999</v>
+        <v>139140.04436</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>23397.83467</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6394.704059999998</v>
+        <v>6394.70406</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>3840.8631</v>
@@ -1982,25 +2018,30 @@
         <v>10537.2454</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>35659.26961</v>
+        <v>35666.92711</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1726.25617</v>
+        <v>20726.28687</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>92725.38678000003</v>
+        <v>92725.38678</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>370460.1374299999</v>
+        <v>370460.1374300001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>285160.7949799999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>285160.02636</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>262550.642</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1069608.50645</v>
@@ -2012,34 +2053,39 @@
         <v>1750338.80031</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1767046.08203</v>
+        <v>1767046.26911</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7310576.68582</v>
+        <v>7314535.538849999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4417694.4881</v>
+        <v>4417712.45023</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>4520904.69466</v>
+        <v>8242361.523480001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11860907.51222</v>
+        <v>48474279.31293999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>25549324.30971999</v>
+        <v>25549324.30972</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>68055746.12337001</v>
+        <v>68056610.56486</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>27730531.96875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>27730557.07906</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>38463890.243</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>36.10897</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>141.32122</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>3.70537</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>437554.21056</v>
+        <v>437554.2105599999</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>378835.25017</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>499693.0381899999</v>
+        <v>499693.03819</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>731667.8081199999</v>
+        <v>731667.8081200001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>837079.91655</v>
+        <v>837079.9165500001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1069759.05726</v>
+        <v>1069759.66398</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1815106.36179</v>
+        <v>2043785.54232</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1962843.86652</v>
+        <v>2028051.835940001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2532434.03592</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1722862.06273</v>
+        <v>1722875.65481</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3210599.56201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3210655.75091</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4378554.921</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1828801.42004</v>
@@ -2168,34 +2229,39 @@
         <v>2721541.07793</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2419814.18794</v>
+        <v>2419816.61157</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>9168285.412130002</v>
+        <v>9171647.28208</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5323110.914549999</v>
+        <v>5323177.41855</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6578995.967300001</v>
+        <v>9354566.49577</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12680951.85238</v>
+        <v>49714867.97073999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>23631273.38937001</v>
+        <v>23631273.38937</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>71899678.09144999</v>
+        <v>71899970.89869</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>31476820.31734001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>31477135.57802999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>45792195.132</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>33428.13978</v>
@@ -2204,13 +2270,13 @@
         <v>40943.16272000001</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>44777.60652</v>
+        <v>44777.60651999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>42780.42541</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>33878.65425</v>
+        <v>33878.65424999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>38673.74782</v>
@@ -2219,28 +2285,33 @@
         <v>30201.98298</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>28342.58273000001</v>
+        <v>32604.44504</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>28379.07997</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>25681.86410999999</v>
+        <v>25682.07474000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27871.2921</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27896.62252</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>31893.019</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>681431.0609200001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>740127.09536</v>
+        <v>740127.0953600002</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>709571.17033</v>
@@ -2249,16 +2320,16 @@
         <v>671055.0375099999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>854271.5873500002</v>
+        <v>854271.58735</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>984624.7773500001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>935327.5306000001</v>
+        <v>1196515.13794</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>784761.89774</v>
+        <v>1216043.13453</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1184488.4984</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1277933.58802</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1416800.22</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>229.40632</v>
@@ -2285,7 +2361,7 @@
         <v>272.05042</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>54.20429000000001</v>
+        <v>54.20428999999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>444.03252</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>78352.25329000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>43702.667</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1064930.20261</v>
@@ -2324,34 +2405,39 @@
         <v>1809885.08245</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1603663.13568</v>
+        <v>1603665.55931</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8161476.305939999</v>
+        <v>8164795.38629</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4219723.786470001</v>
+        <v>4219790.29047</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5566656.530379999</v>
+        <v>8074832.70524</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11467378.89966</v>
+        <v>48063279.11725</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>22308960.15184</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>70042589.83631</v>
+        <v>70042879.94617999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>29889812.60864</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>29889854.57765999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>43974291.46</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>482.497</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.37803</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.704</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>48300.11341</v>
@@ -2444,118 +2540,133 @@
         <v>102251.50242</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>118211.01796</v>
+        <v>118253.80756</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>79896.63280000001</v>
+        <v>79896.63279999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>45443.61807</v>
+        <v>51650.36433999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>398947.41434</v>
+        <v>401420.21601</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>83817.10503999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>565816.92871</v>
+        <v>565819.41545</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>202850.19726</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>203098.15851</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>325505.062</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1232616.65596</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>957063.7028300001</v>
+        <v>957063.70283</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>1817618.03418</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1434666.67779</v>
+        <v>1434789.79773</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1235289.86933</v>
+        <v>1235351.74771</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1297658.39981</v>
+        <v>1297791.3371</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2236215.21272</v>
+        <v>3705262.1597</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5196845.132569999</v>
+        <v>5786953.68646</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>9237285.857899999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8805195.4476</v>
+        <v>8805204.300630001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7248857.551380001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7249331.11647</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6962958.024</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>812713.60464</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>578305.00872</v>
+        <v>578305.0087199999</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>1191977.54242</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>777614.4296299999</v>
+        <v>777737.5495699999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>869962.5148100001</v>
+        <v>870024.3931900001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>982447.20638</v>
+        <v>982447.2922799999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1052965.40098</v>
+        <v>2521614.33941</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2994267.92957</v>
+        <v>3584376.48346</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>6040487.733779999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7368017.51715</v>
+        <v>7368026.370180001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4745300.560889999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4745774.125979999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4463470.744</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>419903.05132</v>
+        <v>419903.0513199999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>378758.69411</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>625640.49176</v>
+        <v>625640.4917599999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>657052.2481600001</v>
@@ -2564,10 +2675,10 @@
         <v>365327.3545200001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>315211.19343</v>
+        <v>315344.04482</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1183249.81174</v>
+        <v>1183647.82029</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>2202577.203</v>
@@ -2579,94 +2690,109 @@
         <v>1437177.93045</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2503556.990490001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2503556.99049</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2499487.28</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5042532.50202</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4349284.411910001</v>
+        <v>4349284.41191</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4223284.100179999</v>
+        <v>4223284.10018</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6614775.260229999</v>
+        <v>6614855.73709</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4311741.10962</v>
+        <v>4312236.38182</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5621321.39644</v>
+        <v>5621545.66867</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4157957.714939999</v>
+        <v>3200633.55482</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>151595.8876800001</v>
+        <v>-322327.8496800001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2006791.27562</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-997028.7446699998</v>
+        <v>-996674.0357899994</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4018998.470269999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4020550.639829999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5179145.27</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>598486.2362500001</v>
+        <v>598486.23625</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>591381.42967</v>
+        <v>591381.4296700001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>1089847.80137</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>676165.8235599999</v>
+        <v>676177.60736</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>577738.0869199999</v>
+        <v>577765.2056</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>831167.9199400001</v>
+        <v>831167.9230899999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>921571.44439</v>
+        <v>967002.3178099999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>827010.47306</v>
+        <v>1033494.6036</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1591963.18656</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1265105.7235</v>
+        <v>1265121.34636</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3882568.09961</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3882818.36116</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3156602.73</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>60423.11628999999</v>
+        <v>60423.11629</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>29250.52778</v>
@@ -2681,70 +2807,80 @@
         <v>48318.45535</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>49664.93717</v>
+        <v>49664.94032</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>32337.30391</v>
+        <v>70430.71475000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>55391.59826000001</v>
+        <v>67198.50509000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>164545.71755</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>127161.93341</v>
+        <v>127161.93342</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>102292.67629</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>164992.299</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>538063.11996</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>562130.9018900001</v>
+        <v>562130.90189</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>989648.3573399999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>630290.93311</v>
+        <v>630302.7169100001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>529419.63157</v>
+        <v>529446.7502499999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>781502.98277</v>
+        <v>781502.9827700001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>889234.1404800001</v>
+        <v>896571.60306</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>771618.8748</v>
+        <v>966296.0985100002</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1427417.46901</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1137943.79009</v>
+        <v>1137959.41294</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3780275.42332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3780525.68487</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2991610.431</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>271339.89887</v>
+        <v>271339.8988700001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>384742.44833</v>
@@ -2753,34 +2889,39 @@
         <v>1394789.8718</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>370328.20643</v>
+        <v>370328.20645</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>495150.41127</v>
+        <v>495184.4925400001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>673051.9180600001</v>
+        <v>673207.08716</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>606588.43087</v>
+        <v>626938.26998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1073614.334</v>
+        <v>1172042.47308</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>891392.51523</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1204668.24611</v>
+        <v>1204800.30721</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2293258.68985</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2293483.35693</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2561573.537</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10.75158</v>
@@ -2804,7 +2945,7 @@
         <v>219.92431</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>135.47877</v>
@@ -2813,16 +2954,21 @@
         <v>45.57431</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1196.19384</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1199.14899</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1119.48</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>76554.56922</v>
+        <v>76554.56921999999</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>161465.82973</v>
@@ -2834,16 +2980,16 @@
         <v>65978.78328</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>72559.40665</v>
+        <v>72561.19082</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>109670.50699</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>103975.63807</v>
+        <v>104495.27131</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>216318.80724</v>
+        <v>216501.34102</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>188113.16362</v>
@@ -2852,13 +2998,18 @@
         <v>188736.76029</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>733922.47725</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>733922.56903</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>271569.973</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>194774.57807</v>
@@ -2870,73 +3021,83 @@
         <v>1276643.36132</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>304220.25277</v>
+        <v>304220.25279</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>422548.40373</v>
+        <v>422580.70083</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>563374.77329</v>
+        <v>563529.94239</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>502392.86849</v>
+        <v>522223.07436</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>857295.52676</v>
+        <v>955541.13203</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>703143.8728400001</v>
+        <v>703143.87284</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1015885.91151</v>
+        <v>1016017.97261</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1558140.01876</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1558361.63891</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2288884.084</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>5369678.8394</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4555923.39325</v>
+        <v>4555923.393249999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>3918342.02975</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6920612.877359999</v>
+        <v>6920705.138</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4394328.78527</v>
+        <v>4394817.09488</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5779437.39832</v>
+        <v>5779506.5046</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4472940.728459999</v>
+        <v>3540697.60265</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-95007.97325999987</v>
+        <v>-460875.7191600001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2707361.94695</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-936591.2672800007</v>
+        <v>-936352.9966399997</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5608307.88003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>5609885.644060002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5774174.463</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>1282017.21165</v>
@@ -2951,31 +3112,36 @@
         <v>1240184.04494</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>918287.1235799999</v>
+        <v>918420.3556200002</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1241389.54144</v>
+        <v>1241400.20243</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>800268.6406199998</v>
+        <v>800285.5358900001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>577257.67053</v>
+        <v>581237.4404200001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>993216.5331000001</v>
+        <v>993216.5330999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>614788.4539099998</v>
+        <v>615179.35924</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>676920.4133400001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>677612.16047</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>953116.6040000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>4087661.62775</v>
@@ -2987,31 +3153,34 @@
         <v>2769161.00184</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5680428.83242</v>
+        <v>5680521.09306</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3476041.66169</v>
+        <v>3476396.73926</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4538047.856879999</v>
+        <v>4538106.30217</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3672672.08784</v>
+        <v>2740412.06676</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-672265.6437900001</v>
+        <v>-1042113.15958</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1714145.41385</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1551379.72119</v>
+        <v>-1551532.35588</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4931387.466689999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4932273.48359</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4821057.859</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1925</v>
@@ -3041,31 +3213,34 @@
         <v>2057</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2096</v>
+        <v>2101</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2139</v>
+        <v>2145</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2130</v>
+        <v>2153</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2137</v>
+        <v>2171</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2146</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2093</v>
+        <v>2150</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2151</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>